--- a/biology/Médecine/Réticulocytose/Réticulocytose.xlsx
+++ b/biology/Médecine/Réticulocytose/Réticulocytose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9ticulocytose</t>
+          <t>Réticulocytose</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La réticulocytose exprime le nombre de réticulocytes dans le sang circulant, elle est fournie par l'examen des cellules sanguines appelé hémogramme.
 Les réticulocytes sont de jeunes érythrocytes (ou globules rouges), fraîchement sortis de la moelle osseuse. Le taux de réticulocytes traduit donc l'activité de l'érythropoïèse médullaire, c'est-à-dire l'intensité de la production de globules rouges. 
